--- a/pred_ohlcv/54_21/2019-10-15 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 TRUE ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2581534.9969</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2577701.888506563</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2578135.891006563</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2577876.262406563</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2577178.262406563</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2574194.928106564</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2571173.213406564</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2571173.213406564</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2582621.133406564</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2587947.252806564</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2586795.211606564</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2596198.072606564</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2594827.949606564</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2590687.096306565</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2590966.027906565</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2588625.440606565</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2591854.386506565</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2593752.301706565</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2593751.301706565</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2593751.301706565</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2593750.301706565</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2593750.584306565</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2593881.888306565</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2596548.730406565</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2626545.419906565</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2628371.850306565</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2631608.608806565</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2631608.608806565</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2631601.848506565</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2631704.838506565</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-15 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 TRUE ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2581534.9969</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2577701.888506563</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2578135.891006563</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2577876.262406563</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2577178.262406563</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2586795.211606564</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2596198.072606564</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2594827.949606564</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2591263.540206564</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2591263.540206564</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2592442.540206564</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2592306.830306564</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2592306.830306564</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2592417.454406565</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2592417.454406565</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2590549.096306565</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2590966.027906565</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2593229.131806565</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2588625.440606565</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2588624.440606565</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2591853.386506565</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2593751.301706565</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2593751.301706565</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2593750.301706565</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2593750.584306565</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2593881.888306565</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2596326.941906565</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2596548.730406565</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2626545.419906565</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2628371.850306565</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2631608.608806565</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2631608.608806565</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2631601.848506565</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2631704.838506565</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
